--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H2">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I2">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J2">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N2">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O2">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P2">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q2">
-        <v>472.73723126237</v>
+        <v>129.883150231251</v>
       </c>
       <c r="R2">
-        <v>1890.94892504948</v>
+        <v>519.5326009250041</v>
       </c>
       <c r="S2">
-        <v>0.07985492517000438</v>
+        <v>0.0964594098073227</v>
       </c>
       <c r="T2">
-        <v>0.04448233782977682</v>
+        <v>0.0574984870994488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H3">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I3">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J3">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P3">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q3">
-        <v>206.8750708433925</v>
+        <v>161.3376055974675</v>
       </c>
       <c r="R3">
-        <v>1241.250425060355</v>
+        <v>968.0256335848052</v>
       </c>
       <c r="S3">
-        <v>0.03494540351227347</v>
+        <v>0.1198194699462551</v>
       </c>
       <c r="T3">
-        <v>0.02919894874339032</v>
+        <v>0.10713477711603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H4">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I4">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J4">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N4">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O4">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P4">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q4">
-        <v>470.9070475855316</v>
+        <v>59.0114770848575</v>
       </c>
       <c r="R4">
-        <v>2825.44228551319</v>
+        <v>354.068862509145</v>
       </c>
       <c r="S4">
-        <v>0.07954576995459853</v>
+        <v>0.04382564051864294</v>
       </c>
       <c r="T4">
-        <v>0.06646518930142217</v>
+        <v>0.03918603738639566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H5">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I5">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J5">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N5">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O5">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P5">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q5">
-        <v>59.44790495839774</v>
+        <v>78.18574733610102</v>
       </c>
       <c r="R5">
-        <v>237.791619833591</v>
+        <v>312.7429893444041</v>
       </c>
       <c r="S5">
-        <v>0.01004195922815243</v>
+        <v>0.05806566155776954</v>
       </c>
       <c r="T5">
-        <v>0.005593766720193605</v>
+        <v>0.03461235869750175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H6">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I6">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J6">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N6">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O6">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P6">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q6">
-        <v>216.9499110042017</v>
+        <v>26.27563262265217</v>
       </c>
       <c r="R6">
-        <v>1301.69946602521</v>
+        <v>157.653795735913</v>
       </c>
       <c r="S6">
-        <v>0.0366472487530065</v>
+        <v>0.01951394011141895</v>
       </c>
       <c r="T6">
-        <v>0.03062094096436707</v>
+        <v>0.01744809608513686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H7">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I7">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J7">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N7">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O7">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P7">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q7">
-        <v>865.1574162667935</v>
+        <v>80.05879875632817</v>
       </c>
       <c r="R7">
-        <v>5190.944497600761</v>
+        <v>480.352792537969</v>
       </c>
       <c r="S7">
-        <v>0.1461426690505696</v>
+        <v>0.05945670754188833</v>
       </c>
       <c r="T7">
-        <v>0.1221108321536797</v>
+        <v>0.05316232089334386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J8">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N8">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O8">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P8">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q8">
-        <v>47.45853054095333</v>
+        <v>16.719367576586</v>
       </c>
       <c r="R8">
-        <v>284.75118324572</v>
+        <v>100.316205459516</v>
       </c>
       <c r="S8">
-        <v>0.008016710244941236</v>
+        <v>0.01241685565770281</v>
       </c>
       <c r="T8">
-        <v>0.006698434930088534</v>
+        <v>0.01110234475220597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J9">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P9">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q9">
         <v>20.768380864705</v>
@@ -1013,10 +1013,10 @@
         <v>186.915427782345</v>
       </c>
       <c r="S9">
-        <v>0.003508201576221361</v>
+        <v>0.01542390800728458</v>
       </c>
       <c r="T9">
-        <v>0.004396964452117057</v>
+        <v>0.02068658308236277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J10">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N10">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O10">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P10">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q10">
-        <v>47.27479669860111</v>
+        <v>7.596324656911666</v>
       </c>
       <c r="R10">
-        <v>425.47317028741</v>
+        <v>68.366921912205</v>
       </c>
       <c r="S10">
-        <v>0.007985673865189519</v>
+        <v>0.005641509247395891</v>
       </c>
       <c r="T10">
-        <v>0.0100087533023852</v>
+        <v>0.007566405978371686</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J11">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N11">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O11">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P11">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q11">
-        <v>5.968030496624833</v>
+        <v>10.06455607701933</v>
       </c>
       <c r="R11">
-        <v>35.808182979749</v>
+        <v>60.387336462116</v>
       </c>
       <c r="S11">
-        <v>0.001008121631223455</v>
+        <v>0.007474573394882133</v>
       </c>
       <c r="T11">
-        <v>0.0008423451692826554</v>
+        <v>0.006683277392708354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J12">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N12">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O12">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P12">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q12">
-        <v>21.77980344335445</v>
+        <v>3.382362988141889</v>
       </c>
       <c r="R12">
-        <v>196.01823099019</v>
+        <v>30.441266893277</v>
       </c>
       <c r="S12">
-        <v>0.003679051403550656</v>
+        <v>0.002511955838839809</v>
       </c>
       <c r="T12">
-        <v>0.004611097135515019</v>
+        <v>0.003369041304891336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J13">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N13">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O13">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P13">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q13">
-        <v>86.853958070931</v>
+        <v>10.30566691494455</v>
       </c>
       <c r="R13">
-        <v>781.6856226383791</v>
+        <v>92.751002234501</v>
       </c>
       <c r="S13">
-        <v>0.01467139853561388</v>
+        <v>0.007653637492750157</v>
       </c>
       <c r="T13">
-        <v>0.01838823010091083</v>
+        <v>0.01026507729437222</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H14">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I14">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J14">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N14">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O14">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P14">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q14">
-        <v>208.7096515982267</v>
+        <v>68.50665814372</v>
       </c>
       <c r="R14">
-        <v>1252.25790958936</v>
+        <v>411.03994886232</v>
       </c>
       <c r="S14">
-        <v>0.0352553014835088</v>
+        <v>0.05087736015526116</v>
       </c>
       <c r="T14">
-        <v>0.02945788680300102</v>
+        <v>0.04549122645034909</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H15">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I15">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J15">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P15">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q15">
-        <v>91.33366509929</v>
+        <v>85.09725990410001</v>
       </c>
       <c r="R15">
-        <v>822.0029858936101</v>
+        <v>765.8753391369002</v>
       </c>
       <c r="S15">
-        <v>0.01542811208782955</v>
+        <v>0.06319858620579419</v>
       </c>
       <c r="T15">
-        <v>0.01933664840505835</v>
+        <v>0.08476209814118255</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H16">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I16">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J16">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N16">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O16">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P16">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q16">
-        <v>207.9016403558422</v>
+        <v>31.12550842823333</v>
       </c>
       <c r="R16">
-        <v>1871.11476320258</v>
+        <v>280.1295758541</v>
       </c>
       <c r="S16">
-        <v>0.03511881196453262</v>
+        <v>0.02311576341961749</v>
       </c>
       <c r="T16">
-        <v>0.04401576262187099</v>
+        <v>0.03100291834380211</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H17">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I17">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J17">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N17">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O17">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P17">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q17">
-        <v>26.24576765189366</v>
+        <v>41.23894635238667</v>
       </c>
       <c r="R17">
-        <v>157.474605911362</v>
+        <v>247.43367811432</v>
       </c>
       <c r="S17">
-        <v>0.004433443514221725</v>
+        <v>0.03062663955366512</v>
       </c>
       <c r="T17">
-        <v>0.003704403924911341</v>
+        <v>0.02738434917018636</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H18">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I18">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J18">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N18">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O18">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P18">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q18">
-        <v>95.78162527846889</v>
+        <v>13.85904005550445</v>
       </c>
       <c r="R18">
-        <v>862.0346275062201</v>
+        <v>124.73136049954</v>
       </c>
       <c r="S18">
-        <v>0.01617946295206972</v>
+        <v>0.01029259624416124</v>
       </c>
       <c r="T18">
-        <v>0.02027834544536634</v>
+        <v>0.01380445521572722</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H19">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I19">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J19">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N19">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O19">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P19">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q19">
-        <v>381.959979002478</v>
+        <v>42.22688430355778</v>
       </c>
       <c r="R19">
-        <v>3437.639811022302</v>
+        <v>380.04195873202</v>
       </c>
       <c r="S19">
-        <v>0.064520802517987</v>
+        <v>0.03136034451482868</v>
       </c>
       <c r="T19">
-        <v>0.08086641229983667</v>
+        <v>0.04206057064079541</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H20">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I20">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J20">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N20">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O20">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P20">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q20">
-        <v>22.49232593589</v>
+        <v>10.700390581095</v>
       </c>
       <c r="R20">
-        <v>89.96930374355999</v>
+        <v>42.80156232438</v>
       </c>
       <c r="S20">
-        <v>0.003799410932186539</v>
+        <v>0.007946784154238305</v>
       </c>
       <c r="T20">
-        <v>0.002116421501615185</v>
+        <v>0.004736998361147837</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H21">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I21">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J21">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P21">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q21">
-        <v>9.842892020572499</v>
+        <v>13.2917579550375</v>
       </c>
       <c r="R21">
-        <v>59.057352123435</v>
+        <v>79.75054773022501</v>
       </c>
       <c r="S21">
-        <v>0.001662664486273595</v>
+        <v>0.009871296818424536</v>
       </c>
       <c r="T21">
-        <v>0.001389254386348898</v>
+        <v>0.008826271598117195</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H22">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I22">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J22">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N22">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O22">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P22">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q22">
-        <v>22.405247776905</v>
+        <v>4.8616456595875</v>
       </c>
       <c r="R22">
-        <v>134.43148666143</v>
+        <v>29.169873957525</v>
       </c>
       <c r="S22">
-        <v>0.003784701661560402</v>
+        <v>0.003610564343266973</v>
       </c>
       <c r="T22">
-        <v>0.003162341787986893</v>
+        <v>0.003228331809116654</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H23">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I23">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J23">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N23">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O23">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P23">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q23">
-        <v>2.828466992031749</v>
+        <v>6.441313079345001</v>
       </c>
       <c r="R23">
-        <v>11.313867968127</v>
+        <v>25.76525231738</v>
       </c>
       <c r="S23">
-        <v>0.0004777855541256621</v>
+        <v>0.004783724885880625</v>
       </c>
       <c r="T23">
-        <v>0.0002661453677848792</v>
+        <v>0.002851530443608813</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H24">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I24">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J24">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N24">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O24">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P24">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q24">
-        <v>10.322242013895</v>
+        <v>2.164711368080834</v>
       </c>
       <c r="R24">
-        <v>61.93345208337</v>
+        <v>12.988268208485</v>
       </c>
       <c r="S24">
-        <v>0.001743636441337921</v>
+        <v>0.001607651035538547</v>
       </c>
       <c r="T24">
-        <v>0.001456911237549513</v>
+        <v>0.001437456996346528</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H25">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I25">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J25">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N25">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O25">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P25">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q25">
-        <v>41.1632537182695</v>
+        <v>6.595623948300834</v>
       </c>
       <c r="R25">
-        <v>246.979522309617</v>
+        <v>39.573743689805</v>
       </c>
       <c r="S25">
-        <v>0.006953310059054722</v>
+        <v>0.004898325858522828</v>
       </c>
       <c r="T25">
-        <v>0.005809901263264322</v>
+        <v>0.004379764401644567</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H26">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I26">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J26">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N26">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O26">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P26">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q26">
-        <v>303.2890122272666</v>
+        <v>28.105320918858</v>
       </c>
       <c r="R26">
-        <v>1819.7340733636</v>
+        <v>168.631925513148</v>
       </c>
       <c r="S26">
-        <v>0.05123167750426508</v>
+        <v>0.02087278190782708</v>
       </c>
       <c r="T26">
-        <v>0.04280709263979587</v>
+        <v>0.01866308404209769</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H27">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I27">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J27">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P27">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q27">
-        <v>132.72264535415</v>
+        <v>34.911727760865</v>
       </c>
       <c r="R27">
-        <v>1194.50380818735</v>
+        <v>314.205549847785</v>
       </c>
       <c r="S27">
-        <v>0.02241955194605448</v>
+        <v>0.02592764842222541</v>
       </c>
       <c r="T27">
-        <v>0.02809928984906574</v>
+        <v>0.03477422537552365</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H28">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I28">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J28">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N28">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O28">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P28">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q28">
-        <v>302.1148406942555</v>
+        <v>12.769450836485</v>
       </c>
       <c r="R28">
-        <v>2719.033566248299</v>
+        <v>114.925057528365</v>
       </c>
       <c r="S28">
-        <v>0.05103333607121363</v>
+        <v>0.00948339864761457</v>
       </c>
       <c r="T28">
-        <v>0.06396204998566785</v>
+        <v>0.01271915742329323</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H29">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I29">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J29">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N29">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O29">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P29">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q29">
-        <v>38.13936195731166</v>
+        <v>16.918557305158</v>
       </c>
       <c r="R29">
-        <v>228.8361717438699</v>
+        <v>101.511343830948</v>
       </c>
       <c r="S29">
-        <v>0.006442513290099869</v>
+        <v>0.01256478649879749</v>
       </c>
       <c r="T29">
-        <v>0.005383100391734428</v>
+        <v>0.01123461488907416</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H30">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I30">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J30">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N30">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O30">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P30">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q30">
-        <v>139.1862537155222</v>
+        <v>5.685765134975667</v>
       </c>
       <c r="R30">
-        <v>1252.6762834397</v>
+        <v>51.171886214781</v>
       </c>
       <c r="S30">
-        <v>0.02351138674960337</v>
+        <v>0.004222607383993405</v>
       </c>
       <c r="T30">
-        <v>0.02946772855319502</v>
+        <v>0.005663371334419449</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H31">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I31">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J31">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N31">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O31">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P31">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q31">
-        <v>555.0498688245299</v>
+        <v>17.32386554698367</v>
       </c>
       <c r="R31">
-        <v>4995.448819420769</v>
+        <v>155.914789922853</v>
       </c>
       <c r="S31">
-        <v>0.09375920238447219</v>
+        <v>0.0128657939329946</v>
       </c>
       <c r="T31">
-        <v>0.1175120274552206</v>
+        <v>0.01725563423937381</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H32">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I32">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J32">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N32">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O32">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P32">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q32">
-        <v>166.2949699446733</v>
+        <v>73.13068577810799</v>
       </c>
       <c r="R32">
-        <v>997.76981966804</v>
+        <v>438.7841146686479</v>
       </c>
       <c r="S32">
-        <v>0.0280905998150797</v>
+        <v>0.05431145438343223</v>
       </c>
       <c r="T32">
-        <v>0.02347135536390434</v>
+        <v>0.04856177015994469</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H33">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I33">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J33">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P33">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q33">
-        <v>72.77252861243501</v>
+        <v>90.84111155398999</v>
       </c>
       <c r="R33">
-        <v>654.952757511915</v>
+        <v>817.5700039859099</v>
       </c>
       <c r="S33">
-        <v>0.01229275894191788</v>
+        <v>0.06746433229512715</v>
       </c>
       <c r="T33">
-        <v>0.01540698928260401</v>
+        <v>0.090483327212542</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H34">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I34">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J34">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N34">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O34">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P34">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q34">
-        <v>165.6511654812078</v>
+        <v>33.22640219544333</v>
       </c>
       <c r="R34">
-        <v>1490.86048933087</v>
+        <v>299.0376197589899</v>
       </c>
       <c r="S34">
-        <v>0.02798184815801881</v>
+        <v>0.02467601948433526</v>
       </c>
       <c r="T34">
-        <v>0.03507073039624634</v>
+        <v>0.03309553758772529</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H35">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I35">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J35">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N35">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O35">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P35">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q35">
-        <v>20.91201393622383</v>
+        <v>44.02247181857466</v>
       </c>
       <c r="R35">
-        <v>125.472083617343</v>
+        <v>264.134830911448</v>
       </c>
       <c r="S35">
-        <v>0.003532464120864706</v>
+        <v>0.03269386092282732</v>
       </c>
       <c r="T35">
-        <v>0.002951582423902123</v>
+        <v>0.0292327240689739</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H36">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I36">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J36">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N36">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O36">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P36">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q36">
-        <v>76.31655927248113</v>
+        <v>14.79449050571178</v>
       </c>
       <c r="R36">
-        <v>686.84903345233</v>
+        <v>133.150414551406</v>
       </c>
       <c r="S36">
-        <v>0.01289141774101956</v>
+        <v>0.01098732068047447</v>
       </c>
       <c r="T36">
-        <v>0.01615731146375768</v>
+        <v>0.01473622132612893</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H37">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I37">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J37">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N37">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O37">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P37">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q37">
-        <v>304.336779549417</v>
+        <v>45.0770931040531</v>
       </c>
       <c r="R37">
-        <v>2739.031015944753</v>
+        <v>405.6938379364779</v>
       </c>
       <c r="S37">
-        <v>0.05140866669735756</v>
+        <v>0.03347708912899855</v>
       </c>
       <c r="T37">
-        <v>0.06443246634718239</v>
+        <v>0.04489955368610974</v>
       </c>
     </row>
   </sheetData>
